--- a/Employee_Reports29/Ericson Murcillos Victorino Q0068.xlsx
+++ b/Employee_Reports29/Ericson Murcillos Victorino Q0068.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -448,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,8 +462,8 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="52" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -568,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -596,8 +600,10 @@
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
-        <v/>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -615,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -652,11 +658,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>-50</v>
+        <v>-51</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -665,6 +671,27 @@
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>YOU ARE LISTED AS ; SUPERVISOR</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr"/>
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
